--- a/OriginTable/CatPerformance.xlsx
+++ b/OriginTable/CatPerformance.xlsx
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/OriginTable/CatPerformance.xlsx
+++ b/OriginTable/CatPerformance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="13710" windowHeight="11145"/>
   </bookViews>
   <sheets>
     <sheet name="CatPerformance" sheetId="1" r:id="rId1"/>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
